--- a/config_aomi/fish3d_use_config.xlsx
+++ b/config_aomi/fish3d_use_config.xlsx
@@ -771,6 +771,61 @@
         <row r="110">
           <cell r="B110">
             <v>55</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="B111">
+            <v>62</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="B112">
+            <v>62</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="B113">
+            <v>61</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="B114">
+            <v>61</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="B115">
+            <v>61</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="B116">
+            <v>13</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="B117">
+            <v>14</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="B118">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="B119">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="B120">
+            <v>17</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="B121">
+            <v>18</v>
           </cell>
         </row>
       </sheetData>
@@ -1050,11 +1105,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D110"/>
+  <dimension ref="A1:D121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C98" sqref="C98"/>
+      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E117" sqref="E117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2061,6 +2116,123 @@
         <v>55</v>
       </c>
     </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" s="3">
+        <v>110</v>
+      </c>
+      <c r="B111" s="3">
+        <f>[1]use_fish!$B111</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" s="3">
+        <v>111</v>
+      </c>
+      <c r="B112" s="3">
+        <f>[1]use_fish!$B112</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" s="3">
+        <v>112</v>
+      </c>
+      <c r="B113" s="3">
+        <f>[1]use_fish!$B113</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" s="3">
+        <v>113</v>
+      </c>
+      <c r="B114" s="3">
+        <f>[1]use_fish!$B114</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" s="3">
+        <v>114</v>
+      </c>
+      <c r="B115" s="3">
+        <f>[1]use_fish!$B115</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" s="3">
+        <v>115</v>
+      </c>
+      <c r="B116" s="3">
+        <f>[1]use_fish!$B116</f>
+        <v>13</v>
+      </c>
+      <c r="C116" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" s="3">
+        <v>116</v>
+      </c>
+      <c r="B117" s="3">
+        <f>[1]use_fish!$B117</f>
+        <v>14</v>
+      </c>
+      <c r="C117" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" s="3">
+        <v>117</v>
+      </c>
+      <c r="B118" s="3">
+        <f>[1]use_fish!$B118</f>
+        <v>15</v>
+      </c>
+      <c r="C118" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" s="3">
+        <v>118</v>
+      </c>
+      <c r="B119" s="3">
+        <f>[1]use_fish!$B119</f>
+        <v>16</v>
+      </c>
+      <c r="C119" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" s="3">
+        <v>119</v>
+      </c>
+      <c r="B120" s="3">
+        <f>[1]use_fish!$B120</f>
+        <v>17</v>
+      </c>
+      <c r="C120" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" s="3">
+        <v>120</v>
+      </c>
+      <c r="B121" s="3">
+        <f>[1]use_fish!$B121</f>
+        <v>18</v>
+      </c>
+      <c r="C121" s="4">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config_aomi/fish3d_use_config.xlsx
+++ b/config_aomi/fish3d_use_config.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView windowWidth="28125" windowHeight="12090"/>
   </bookViews>
   <sheets>
     <sheet name="use_fish" sheetId="2" r:id="rId1"/>
@@ -12,12 +12,7 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -27,15 +22,13 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -43,9 +36,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -60,79 +51,218 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>attr_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>id</t>
   </si>
   <si>
     <t>fish_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>attr_id</t>
   </si>
   <si>
     <t>cond_key|权限</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0B0B0B"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF0B0B0B"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
-      <color indexed="81"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -145,8 +275,194 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -169,49 +485,335 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 4" xfId="2"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 4" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="group"/>
@@ -885,7 +1487,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -920,7 +1522,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1094,1149 +1696,1153 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D121"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E117" sqref="E117"/>
+      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="D122" sqref="D122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="9" style="4"/>
-    <col min="3" max="3" width="11.5" style="4" customWidth="1"/>
-    <col min="4" max="4" width="37.875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="9" style="3"/>
+    <col min="3" max="3" width="11.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="37.875" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3">
+      <c r="B2" s="4">
         <f>[1]use_fish!$B2</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+    <row r="3" spans="1:2">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="4">
         <f>[1]use_fish!$B3</f>
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+    <row r="4" spans="1:2">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="4">
         <f>[1]use_fish!$B4</f>
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+    <row r="5" spans="1:2">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="4">
         <f>[1]use_fish!$B5</f>
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+    <row r="6" spans="1:2">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="4">
         <f>[1]use_fish!$B6</f>
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
+    <row r="7" spans="1:2">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="4">
         <f>[1]use_fish!$B7</f>
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+    <row r="8" spans="1:2">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="4">
         <f>[1]use_fish!$B8</f>
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+    <row r="9" spans="1:2">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="4">
         <f>[1]use_fish!$B9</f>
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+    <row r="10" spans="1:2">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="4">
         <f>[1]use_fish!$B10</f>
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
+    <row r="11" spans="1:2">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="4">
         <f>[1]use_fish!$B11</f>
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+    <row r="12" spans="1:2">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="4">
         <f>[1]use_fish!$B12</f>
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
+    <row r="13" spans="1:2">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="4">
         <f>[1]use_fish!$B13</f>
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
+    <row r="14" spans="1:2">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="4">
         <f>[1]use_fish!$B14</f>
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
+    <row r="15" spans="1:2">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="4">
         <f>[1]use_fish!$B15</f>
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
+    <row r="16" spans="1:2">
+      <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="4">
         <f>[1]use_fish!$B16</f>
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
+    <row r="17" spans="1:2">
+      <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="4">
         <f>[1]use_fish!$B17</f>
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
+    <row r="18" spans="1:2">
+      <c r="A18" s="4">
         <v>17</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="4">
         <f>[1]use_fish!$B18</f>
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
+    <row r="19" spans="1:2">
+      <c r="A19" s="4">
         <v>18</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="4">
         <f>[1]use_fish!$B19</f>
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
+    <row r="20" spans="1:2">
+      <c r="A20" s="4">
         <v>19</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="4">
         <f>[1]use_fish!$B20</f>
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
+    <row r="21" spans="1:2">
+      <c r="A21" s="4">
         <v>20</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="4">
         <f>[1]use_fish!$B21</f>
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
+    <row r="22" spans="1:2">
+      <c r="A22" s="4">
         <v>21</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="4">
         <f>[1]use_fish!$B22</f>
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
+    <row r="23" spans="1:2">
+      <c r="A23" s="4">
         <v>22</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="4">
         <f>[1]use_fish!$B23</f>
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
+    <row r="24" spans="1:2">
+      <c r="A24" s="4">
         <v>23</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="4">
         <f>[1]use_fish!$B24</f>
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
+    <row r="25" spans="1:2">
+      <c r="A25" s="4">
         <v>24</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="4">
         <f>[1]use_fish!$B25</f>
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
+    <row r="26" spans="1:2">
+      <c r="A26" s="4">
         <v>25</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="4">
         <f>[1]use_fish!$B26</f>
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
+    <row r="27" spans="1:2">
+      <c r="A27" s="4">
         <v>26</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="4">
         <f>[1]use_fish!$B27</f>
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
+    <row r="28" spans="1:2">
+      <c r="A28" s="4">
         <v>27</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="4">
         <f>[1]use_fish!$B28</f>
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
+    <row r="29" spans="1:2">
+      <c r="A29" s="4">
         <v>28</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="4">
         <f>[1]use_fish!$B29</f>
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="3">
+    <row r="30" spans="1:2">
+      <c r="A30" s="4">
         <v>29</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="4">
         <f>[1]use_fish!$B30</f>
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="3">
+    <row r="31" spans="1:2">
+      <c r="A31" s="4">
         <v>30</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="4">
         <f>[1]use_fish!$B31</f>
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="3">
+    <row r="32" spans="1:2">
+      <c r="A32" s="4">
         <v>31</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="4">
         <f>[1]use_fish!$B32</f>
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="3">
+    <row r="33" spans="1:2">
+      <c r="A33" s="4">
         <v>32</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="4">
         <f>[1]use_fish!$B33</f>
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="3">
+    <row r="34" spans="1:2">
+      <c r="A34" s="4">
         <v>33</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="4">
         <f>[1]use_fish!$B34</f>
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="3">
+    <row r="35" spans="1:2">
+      <c r="A35" s="4">
         <v>34</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="4">
         <f>[1]use_fish!$B35</f>
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="3">
+    <row r="36" spans="1:2">
+      <c r="A36" s="4">
         <v>35</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="4">
         <f>[1]use_fish!$B36</f>
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="3">
+    <row r="37" spans="1:2">
+      <c r="A37" s="4">
         <v>36</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="4">
         <f>[1]use_fish!$B37</f>
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="3">
+    <row r="38" spans="1:2">
+      <c r="A38" s="4">
         <v>37</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38" s="4">
         <f>[1]use_fish!$B38</f>
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="3">
+    <row r="39" spans="1:2">
+      <c r="A39" s="4">
         <v>38</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" s="4">
         <f>[1]use_fish!$B39</f>
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="3">
+    <row r="40" spans="1:2">
+      <c r="A40" s="4">
         <v>39</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="4">
         <f>[1]use_fish!$B40</f>
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="3">
+    <row r="41" spans="1:2">
+      <c r="A41" s="4">
         <v>40</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="4">
         <f>[1]use_fish!$B41</f>
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="3">
+    <row r="42" spans="1:2">
+      <c r="A42" s="4">
         <v>41</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="4">
         <f>[1]use_fish!$B42</f>
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="3">
+    <row r="43" spans="1:2">
+      <c r="A43" s="4">
         <v>42</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43" s="4">
         <f>[1]use_fish!$B43</f>
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="3">
+    <row r="44" spans="1:2">
+      <c r="A44" s="4">
         <v>43</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44" s="4">
         <f>[1]use_fish!$B44</f>
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="3">
+    <row r="45" spans="1:2">
+      <c r="A45" s="4">
         <v>44</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45" s="4">
         <f>[1]use_fish!$B45</f>
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="3">
+    <row r="46" spans="1:2">
+      <c r="A46" s="4">
         <v>45</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46" s="4">
         <f>[1]use_fish!$B46</f>
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="3">
+    <row r="47" spans="1:2">
+      <c r="A47" s="4">
         <v>46</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47" s="4">
         <f>[1]use_fish!$B47</f>
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="3">
+    <row r="48" spans="1:2">
+      <c r="A48" s="4">
         <v>47</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48" s="4">
         <f>[1]use_fish!$B48</f>
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="3">
+    <row r="49" spans="1:2">
+      <c r="A49" s="4">
         <v>48</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B49" s="4">
         <f>[1]use_fish!$B49</f>
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="3">
+    <row r="50" spans="1:2">
+      <c r="A50" s="4">
         <v>49</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B50" s="4">
         <f>[1]use_fish!$B50</f>
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="3">
+    <row r="51" spans="1:2">
+      <c r="A51" s="4">
         <v>50</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B51" s="4">
         <f>[1]use_fish!$B51</f>
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="3">
+    <row r="52" spans="1:2">
+      <c r="A52" s="4">
         <v>51</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B52" s="4">
         <f>[1]use_fish!$B52</f>
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="3">
+    <row r="53" spans="1:2">
+      <c r="A53" s="4">
         <v>52</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B53" s="4">
         <f>[1]use_fish!$B53</f>
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="3">
+    <row r="54" spans="1:2">
+      <c r="A54" s="4">
         <v>53</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B54" s="4">
         <f>[1]use_fish!$B54</f>
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="3">
+    <row r="55" spans="1:2">
+      <c r="A55" s="4">
         <v>54</v>
       </c>
-      <c r="B55" s="3">
+      <c r="B55" s="4">
         <f>[1]use_fish!$B55</f>
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="3">
+    <row r="56" spans="1:2">
+      <c r="A56" s="4">
         <v>55</v>
       </c>
-      <c r="B56" s="3">
+      <c r="B56" s="4">
         <f>[1]use_fish!$B56</f>
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="3">
+    <row r="57" spans="1:2">
+      <c r="A57" s="4">
         <v>56</v>
       </c>
-      <c r="B57" s="3">
+      <c r="B57" s="4">
         <f>[1]use_fish!$B57</f>
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="3">
+    <row r="58" spans="1:2">
+      <c r="A58" s="4">
         <v>57</v>
       </c>
-      <c r="B58" s="3">
+      <c r="B58" s="4">
         <f>[1]use_fish!$B58</f>
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="3">
+    <row r="59" spans="1:2">
+      <c r="A59" s="4">
         <v>58</v>
       </c>
-      <c r="B59" s="3">
+      <c r="B59" s="4">
         <f>[1]use_fish!$B59</f>
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="3">
+    <row r="60" spans="1:2">
+      <c r="A60" s="4">
         <v>59</v>
       </c>
-      <c r="B60" s="3">
+      <c r="B60" s="4">
         <f>[1]use_fish!$B60</f>
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="3">
+    <row r="61" spans="1:2">
+      <c r="A61" s="4">
         <v>60</v>
       </c>
-      <c r="B61" s="3">
+      <c r="B61" s="4">
         <f>[1]use_fish!$B61</f>
         <v>22</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="3">
+    <row r="62" spans="1:2">
+      <c r="A62" s="4">
         <v>61</v>
       </c>
-      <c r="B62" s="3">
+      <c r="B62" s="4">
         <f>[1]use_fish!$B62</f>
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="3">
+    <row r="63" spans="1:2">
+      <c r="A63" s="4">
         <v>62</v>
       </c>
-      <c r="B63" s="3">
+      <c r="B63" s="4">
         <f>[1]use_fish!$B63</f>
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" s="3">
+    <row r="64" spans="1:2">
+      <c r="A64" s="4">
         <v>63</v>
       </c>
-      <c r="B64" s="3">
+      <c r="B64" s="4">
         <f>[1]use_fish!$B64</f>
         <v>26</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="3">
+    <row r="65" spans="1:2">
+      <c r="A65" s="4">
         <v>64</v>
       </c>
-      <c r="B65" s="3">
+      <c r="B65" s="4">
         <f>[1]use_fish!$B65</f>
         <v>27</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="3">
+    <row r="66" spans="1:2">
+      <c r="A66" s="4">
         <v>65</v>
       </c>
-      <c r="B66" s="3">
+      <c r="B66" s="4">
         <f>[1]use_fish!$B66</f>
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="3">
+    <row r="67" spans="1:2">
+      <c r="A67" s="4">
         <v>66</v>
       </c>
-      <c r="B67" s="3">
+      <c r="B67" s="4">
         <f>[1]use_fish!$B67</f>
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="3">
+    <row r="68" spans="1:2">
+      <c r="A68" s="4">
         <v>67</v>
       </c>
-      <c r="B68" s="3">
+      <c r="B68" s="4">
         <f>[1]use_fish!$B68</f>
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="3">
+    <row r="69" spans="1:2">
+      <c r="A69" s="4">
         <v>68</v>
       </c>
-      <c r="B69" s="3">
+      <c r="B69" s="4">
         <f>[1]use_fish!$B69</f>
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="3">
+    <row r="70" spans="1:2">
+      <c r="A70" s="4">
         <v>69</v>
       </c>
-      <c r="B70" s="3">
+      <c r="B70" s="4">
         <f>[1]use_fish!$B70</f>
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="3">
+    <row r="71" spans="1:2">
+      <c r="A71" s="4">
         <v>70</v>
       </c>
-      <c r="B71" s="3">
+      <c r="B71" s="4">
         <f>[1]use_fish!$B71</f>
         <v>16</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="3">
+    <row r="72" spans="1:2">
+      <c r="A72" s="4">
         <v>71</v>
       </c>
-      <c r="B72" s="3">
+      <c r="B72" s="4">
         <f>[1]use_fish!$B72</f>
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="3">
+    <row r="73" spans="1:2">
+      <c r="A73" s="4">
         <v>72</v>
       </c>
-      <c r="B73" s="3">
+      <c r="B73" s="4">
         <f>[1]use_fish!$B73</f>
         <v>18</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" s="3">
+    <row r="74" spans="1:2">
+      <c r="A74" s="4">
         <v>73</v>
       </c>
-      <c r="B74" s="3">
+      <c r="B74" s="4">
         <f>[1]use_fish!$B74</f>
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" s="3">
+    <row r="75" spans="1:2">
+      <c r="A75" s="4">
         <v>74</v>
       </c>
-      <c r="B75" s="3">
+      <c r="B75" s="4">
         <f>[1]use_fish!$B75</f>
         <v>22</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" s="3">
+    <row r="76" spans="1:2">
+      <c r="A76" s="4">
         <v>75</v>
       </c>
-      <c r="B76" s="3">
+      <c r="B76" s="4">
         <f>[1]use_fish!$B76</f>
         <v>23</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" s="3">
+    <row r="77" spans="1:2">
+      <c r="A77" s="4">
         <v>76</v>
       </c>
-      <c r="B77" s="3">
+      <c r="B77" s="4">
         <f>[1]use_fish!$B77</f>
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" s="3">
+    <row r="78" spans="1:2">
+      <c r="A78" s="4">
         <v>77</v>
       </c>
-      <c r="B78" s="3">
+      <c r="B78" s="4">
         <f>[1]use_fish!$B78</f>
         <v>26</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" s="3">
+    <row r="79" spans="1:2">
+      <c r="A79" s="4">
         <v>78</v>
       </c>
-      <c r="B79" s="3">
+      <c r="B79" s="4">
         <f>[1]use_fish!$B79</f>
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" s="3">
+    <row r="80" spans="1:2">
+      <c r="A80" s="4">
         <v>79</v>
       </c>
-      <c r="B80" s="3">
+      <c r="B80" s="4">
         <f>[1]use_fish!$B80</f>
         <v>59</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" s="3">
+    <row r="81" spans="1:2">
+      <c r="A81" s="4">
         <v>80</v>
       </c>
-      <c r="B81" s="3">
+      <c r="B81" s="4">
         <f>[1]use_fish!$B81</f>
         <v>59</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" s="3">
+    <row r="82" spans="1:2">
+      <c r="A82" s="4">
         <v>81</v>
       </c>
-      <c r="B82" s="3">
+      <c r="B82" s="4">
         <f>[1]use_fish!$B82</f>
         <v>20</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="3">
+    <row r="83" spans="1:2">
+      <c r="A83" s="4">
         <v>82</v>
       </c>
-      <c r="B83" s="3">
+      <c r="B83" s="4">
         <f>[1]use_fish!$B83</f>
         <v>22</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="3">
+    <row r="84" spans="1:2">
+      <c r="A84" s="4">
         <v>83</v>
       </c>
-      <c r="B84" s="3">
+      <c r="B84" s="4">
         <f>[1]use_fish!$B84</f>
         <v>23</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" s="3">
+    <row r="85" spans="1:2">
+      <c r="A85" s="4">
         <v>84</v>
       </c>
-      <c r="B85" s="3">
+      <c r="B85" s="4">
         <f>[1]use_fish!$B85</f>
         <v>25</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="3">
+    <row r="86" spans="1:2">
+      <c r="A86" s="4">
         <v>85</v>
       </c>
-      <c r="B86" s="3">
+      <c r="B86" s="4">
         <f>[1]use_fish!$B86</f>
         <v>26</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" s="3">
+    <row r="87" spans="1:2">
+      <c r="A87" s="4">
         <v>86</v>
       </c>
-      <c r="B87" s="3">
+      <c r="B87" s="4">
         <f>[1]use_fish!$B87</f>
         <v>27</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" s="3">
+    <row r="88" spans="1:2">
+      <c r="A88" s="4">
         <v>87</v>
       </c>
-      <c r="B88" s="3">
+      <c r="B88" s="4">
         <f>[1]use_fish!$B88</f>
         <v>20</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" s="3">
+    <row r="89" spans="1:2">
+      <c r="A89" s="4">
         <v>88</v>
       </c>
-      <c r="B89" s="3">
+      <c r="B89" s="4">
         <f>[1]use_fish!$B89</f>
         <v>22</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" s="3">
+    <row r="90" spans="1:2">
+      <c r="A90" s="4">
         <v>89</v>
       </c>
-      <c r="B90" s="3">
+      <c r="B90" s="4">
         <f>[1]use_fish!$B90</f>
         <v>23</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" s="3">
+    <row r="91" spans="1:2">
+      <c r="A91" s="4">
         <v>90</v>
       </c>
-      <c r="B91" s="3">
+      <c r="B91" s="4">
         <f>[1]use_fish!$B91</f>
         <v>25</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" s="3">
+    <row r="92" spans="1:2">
+      <c r="A92" s="4">
         <v>91</v>
       </c>
-      <c r="B92" s="3">
+      <c r="B92" s="4">
         <f>[1]use_fish!$B92</f>
         <v>26</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" s="3">
+    <row r="93" spans="1:2">
+      <c r="A93" s="4">
         <v>92</v>
       </c>
-      <c r="B93" s="3">
+      <c r="B93" s="4">
         <f>[1]use_fish!$B93</f>
         <v>27</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" s="3">
+    <row r="94" spans="1:2">
+      <c r="A94" s="4">
         <v>93</v>
       </c>
-      <c r="B94" s="3">
+      <c r="B94" s="4">
         <f>[1]use_fish!$B94</f>
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95" s="3">
+    <row r="95" spans="1:2">
+      <c r="A95" s="4">
         <v>94</v>
       </c>
-      <c r="B95" s="3">
+      <c r="B95" s="4">
         <f>[1]use_fish!$B95</f>
         <v>22</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96" s="3">
+    <row r="96" spans="1:2">
+      <c r="A96" s="4">
         <v>95</v>
       </c>
-      <c r="B96" s="3">
+      <c r="B96" s="4">
         <f>[1]use_fish!$B96</f>
         <v>23</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" s="3">
+    <row r="97" spans="1:2">
+      <c r="A97" s="4">
         <v>96</v>
       </c>
-      <c r="B97" s="3">
+      <c r="B97" s="4">
         <f>[1]use_fish!$B97</f>
         <v>25</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" s="3">
+    <row r="98" spans="1:2">
+      <c r="A98" s="4">
         <v>97</v>
       </c>
-      <c r="B98" s="3">
+      <c r="B98" s="4">
         <f>[1]use_fish!$B98</f>
         <v>26</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" s="3">
+    <row r="99" spans="1:2">
+      <c r="A99" s="4">
         <v>98</v>
       </c>
-      <c r="B99" s="3">
+      <c r="B99" s="4">
         <f>[1]use_fish!$B99</f>
         <v>27</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" s="3">
+    <row r="100" spans="1:2">
+      <c r="A100" s="4">
         <v>99</v>
       </c>
-      <c r="B100" s="3">
+      <c r="B100" s="4">
         <f>[1]use_fish!$B100</f>
         <v>20</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" s="3">
+    <row r="101" spans="1:2">
+      <c r="A101" s="4">
         <v>100</v>
       </c>
-      <c r="B101" s="3">
+      <c r="B101" s="4">
         <f>[1]use_fish!$B101</f>
         <v>22</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102" s="3">
+    <row r="102" spans="1:2">
+      <c r="A102" s="4">
         <v>101</v>
       </c>
-      <c r="B102" s="3">
+      <c r="B102" s="4">
         <f>[1]use_fish!$B102</f>
         <v>23</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103" s="3">
+    <row r="103" spans="1:2">
+      <c r="A103" s="4">
         <v>102</v>
       </c>
-      <c r="B103" s="3">
+      <c r="B103" s="4">
         <f>[1]use_fish!$B103</f>
         <v>25</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104" s="3">
+    <row r="104" spans="1:2">
+      <c r="A104" s="4">
         <v>103</v>
       </c>
-      <c r="B104" s="3">
+      <c r="B104" s="4">
         <f>[1]use_fish!$B104</f>
         <v>26</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105" s="3">
+    <row r="105" spans="1:2">
+      <c r="A105" s="4">
         <v>104</v>
       </c>
-      <c r="B105" s="3">
+      <c r="B105" s="4">
         <f>[1]use_fish!$B105</f>
         <v>27</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106" s="3">
+    <row r="106" spans="1:2">
+      <c r="A106" s="4">
         <v>105</v>
       </c>
-      <c r="B106" s="3">
+      <c r="B106" s="4">
         <f>[1]use_fish!$B106</f>
         <v>51</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A107" s="3">
+    <row r="107" spans="1:2">
+      <c r="A107" s="4">
         <v>106</v>
       </c>
-      <c r="B107" s="3">
+      <c r="B107" s="4">
         <f>[1]use_fish!$B107</f>
         <v>52</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A108" s="3">
+    <row r="108" spans="1:2">
+      <c r="A108" s="4">
         <v>107</v>
       </c>
-      <c r="B108" s="3">
+      <c r="B108" s="4">
         <f>[1]use_fish!$B108</f>
         <v>53</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A109" s="3">
+    <row r="109" spans="1:2">
+      <c r="A109" s="4">
         <v>108</v>
       </c>
-      <c r="B109" s="3">
+      <c r="B109" s="4">
         <f>[1]use_fish!$B109</f>
         <v>54</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A110" s="3">
+    <row r="110" spans="1:2">
+      <c r="A110" s="4">
         <v>109</v>
       </c>
-      <c r="B110" s="3">
+      <c r="B110" s="4">
         <f>[1]use_fish!$B110</f>
         <v>55</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A111" s="3">
+    <row r="111" spans="1:2">
+      <c r="A111" s="4">
         <v>110</v>
       </c>
-      <c r="B111" s="3">
+      <c r="B111" s="4">
         <f>[1]use_fish!$B111</f>
         <v>62</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A112" s="3">
+    <row r="112" spans="1:2">
+      <c r="A112" s="4">
         <v>111</v>
       </c>
-      <c r="B112" s="3">
+      <c r="B112" s="4">
         <f>[1]use_fish!$B112</f>
         <v>62</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113" s="3">
+    <row r="113" spans="1:2">
+      <c r="A113" s="4">
         <v>112</v>
       </c>
-      <c r="B113" s="3">
+      <c r="B113" s="4">
         <f>[1]use_fish!$B113</f>
         <v>61</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A114" s="3">
+    <row r="114" spans="1:2">
+      <c r="A114" s="4">
         <v>113</v>
       </c>
-      <c r="B114" s="3">
+      <c r="B114" s="4">
         <f>[1]use_fish!$B114</f>
         <v>61</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115" s="3">
+    <row r="115" spans="1:2">
+      <c r="A115" s="4">
         <v>114</v>
       </c>
-      <c r="B115" s="3">
+      <c r="B115" s="4">
         <f>[1]use_fish!$B115</f>
         <v>61</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116" s="3">
+    <row r="116" spans="1:3">
+      <c r="A116" s="4">
         <v>115</v>
       </c>
-      <c r="B116" s="3">
+      <c r="B116" s="4">
         <f>[1]use_fish!$B116</f>
         <v>13</v>
       </c>
-      <c r="C116" s="4">
+      <c r="C116" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A117" s="3">
+    <row r="117" spans="1:3">
+      <c r="A117" s="4">
         <v>116</v>
       </c>
-      <c r="B117" s="3">
+      <c r="B117" s="4">
         <f>[1]use_fish!$B117</f>
         <v>14</v>
       </c>
-      <c r="C117" s="4">
+      <c r="C117" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118" s="3">
+    <row r="118" spans="1:3">
+      <c r="A118" s="4">
         <v>117</v>
       </c>
-      <c r="B118" s="3">
+      <c r="B118" s="4">
         <f>[1]use_fish!$B118</f>
         <v>15</v>
       </c>
-      <c r="C118" s="4">
+      <c r="C118" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A119" s="3">
+    <row r="119" spans="1:3">
+      <c r="A119" s="4">
         <v>118</v>
       </c>
-      <c r="B119" s="3">
+      <c r="B119" s="4">
         <f>[1]use_fish!$B119</f>
         <v>16</v>
       </c>
-      <c r="C119" s="4">
+      <c r="C119" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A120" s="3">
+    <row r="120" spans="1:3">
+      <c r="A120" s="4">
         <v>119</v>
       </c>
-      <c r="B120" s="3">
+      <c r="B120" s="4">
         <f>[1]use_fish!$B120</f>
         <v>17</v>
       </c>
-      <c r="C120" s="4">
+      <c r="C120" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A121" s="3">
+    <row r="121" spans="1:3">
+      <c r="A121" s="4">
         <v>120</v>
       </c>
-      <c r="B121" s="3">
+      <c r="B121" s="4">
         <f>[1]use_fish!$B121</f>
         <v>18</v>
       </c>
-      <c r="C121" s="4">
+      <c r="C121" s="3">
         <v>9</v>
       </c>
     </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="2">
+        <v>121</v>
+      </c>
+      <c r="B122" s="3">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/config_aomi/fish3d_use_config.xlsx
+++ b/config_aomi/fish3d_use_config.xlsx
@@ -68,12 +68,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,10 +88,34 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -103,43 +127,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -154,8 +142,10 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -173,17 +163,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,38 +218,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
@@ -251,6 +232,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
@@ -277,181 +263,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,17 +472,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -506,6 +492,15 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,31 +520,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,181 +550,186 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1702,12 +1688,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D122"/>
+  <dimension ref="A1:D123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D122" sqref="D122"/>
+      <selection pane="bottomLeft" activeCell="D127" sqref="D127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -2839,6 +2825,14 @@
         <v>61</v>
       </c>
     </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="2">
+        <v>122</v>
+      </c>
+      <c r="B123" s="3">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
